--- a/biology/Biochimie/Diacylglycérol_O-acyltransférase/Diacylglycérol_O-acyltransférase.xlsx
+++ b/biology/Biochimie/Diacylglycérol_O-acyltransférase/Diacylglycérol_O-acyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diacylglyc%C3%A9rol_O-acyltransf%C3%A9rase</t>
+          <t>Diacylglycérol_O-acyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diacylglycérol O-acyltransférase (DGAT, ou diglycéride acyltransférase) est une acyltransférase qui catalyse la réaction :
 acyl-CoA + 1,2-diacyl-sn-glycérol  
         ⇌
     {\displaystyle \rightleftharpoons }
   CoA + triacylglycérol.
-Cette enzyme produit des triglycérides à partir de diglycérides et d'acyl-CoA. La palmitoyl-CoA et les autres acyl-CoA à chaînes longues peuvent être donneurs d'acyle dans cette réaction. Cette réaction est l'étape terminale de la biosynthèse des triglycérides, et est indispensable à la formation des tissus adipeux[1]. Elle possède deux isoenzymes, encodées par les gènes DGAT1[2] et DGAT2[3], qui catalysent les mêmes réactions mais qui diffèrent par leurs séquences.
+Cette enzyme produit des triglycérides à partir de diglycérides et d'acyl-CoA. La palmitoyl-CoA et les autres acyl-CoA à chaînes longues peuvent être donneurs d'acyle dans cette réaction. Cette réaction est l'étape terminale de la biosynthèse des triglycérides, et est indispensable à la formation des tissus adipeux. Elle possède deux isoenzymes, encodées par les gènes DGAT1 et DGAT2, qui catalysent les mêmes réactions mais qui diffèrent par leurs séquences.
 </t>
         </is>
       </c>
